--- a/Dataset Dictionary.xlsx
+++ b/Dataset Dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assignments\Machine Learning\OilPricePrediction-TimeSeries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A6835A0-1BEE-4A99-845C-E540440CF5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE73B9E-DAE3-4E74-A882-D4F2A0DC78C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C0381D5-8427-4994-971C-691892E8BDB3}"/>
   </bookViews>
@@ -36,22 +36,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Data Dictionary</t>
   </si>
   <si>
-    <t>Table Number</t>
-  </si>
-  <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Possible Data Analysis</t>
+  </si>
+  <si>
+    <t>This table could be used to see how a countries GDP, and poulation affects it's total export. Ultimately how will that affect the over all crude price. A major country should have significance on pricing.</t>
+  </si>
+  <si>
+    <t>Table 1.1: OPEC Members' facts and figures</t>
+  </si>
+  <si>
+    <t>Table 1.2: OPEC Members' crude oil production allocations</t>
+  </si>
+  <si>
+    <t>Table# and Name</t>
+  </si>
+  <si>
+    <t>This table contains geographical and export data of 13 OPEC Contries. Data like population, GDP, total export, natural gas export, crude oil export. Units are usally  barrels per day (b/d) and in million usd. Also, from the data it's a conclusion that among OPEC countries UAE and Saudi Arabia</t>
+  </si>
+  <si>
+    <t>This table contains how much each opec country was assigned to produce oil. For ex; UAE was assigned to produce 200 thousand barrels in a month. Some smaller countries weren't given a target/allocation and are represented by '-' in table. This could be considered as missing values. The granuality of this dataset varies a lot. For more recent year like 22, 21 it's a month, but for older years like 2005 it's a about a year.</t>
+  </si>
+  <si>
+    <t>Doesn’t tell much but just about the target. We could see if each country was able to match their target. And if a country missed it's target what was the impact of it in overall price.</t>
+  </si>
+  <si>
+    <t>Table 2.1: OPEC Members' population (million people)</t>
+  </si>
+  <si>
+    <t>This table again contains the population of each opec country and how it increaed over the years.</t>
+  </si>
+  <si>
+    <t>Doesn't help much in data analysis.</t>
+  </si>
+  <si>
+    <t>Summary 1</t>
+  </si>
+  <si>
+    <t>Macro-economics 2</t>
+  </si>
+  <si>
+    <t>Table 2.2: OPEC Members' Nominal GDP (at current market prices) (m $)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains OPEC memebers nominal GDP over the years. </t>
+  </si>
+  <si>
+    <t>Doesn't help either. Maybe we could see if nominal GDP is corelating with the price?</t>
+  </si>
+  <si>
+    <t>Table 2.3: OPEC Members real GDP growth rates (PPP based weights) (%)</t>
+  </si>
+  <si>
+    <t>Contains hwo the GDP has grown over the years. Since these are relative values to previous years, they are in negative reflecting the GDP has shrunk.</t>
+  </si>
+  <si>
+    <t>Same as above</t>
+  </si>
+  <si>
+    <t>Table 2.4: OPEC Members' values of exports of goods and services (m $)</t>
+  </si>
+  <si>
+    <t>Total exports of OPEC contries (including oil, natural gas, gold, and everything else)</t>
+  </si>
+  <si>
+    <t>Could be a useful feature</t>
+  </si>
+  <si>
+    <t>Table 2.5: OPEC Members' values of petroleum exports (m $)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total petroleum export. Some of them are missing values. The data is from 1960 to 2022 with a granulaity of a year. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> feature</t>
+    </r>
+  </si>
+  <si>
+    <t>Table 2.6: OPEC Members' values of imports of goods and services(m $)</t>
+  </si>
+  <si>
+    <t>Total imports of goods and services. Same granuality as above.</t>
+  </si>
+  <si>
+    <t>Not so useful I think. As their import shouldn't affect much to oil prices.</t>
+  </si>
+  <si>
+    <t>Table 2.7: Current account balances in OPEC Members (m $)</t>
+  </si>
+  <si>
+    <t>What is current account Balance?  According to GPT: It is a broad measure that includes the trade balance (exports minus imports of goods and services), net income (such as interest and dividends) from abroad, and net current transfers (like foreign aid and remittances).
+When oil prices are high and exports are robust, the current account balance tends to show a surplus, as the revenue from oil exports exceeds the value of imported goods and services. Conversely, when oil prices are low or there are disruptions in oil exports, the current account balance may show a deficit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could be a useful feature. As we can see a relational trend between this and price. Although usually price would get low, and the country would incur loss and then the account balance would reflect negative values. Still. </t>
+  </si>
+  <si>
+    <t>yet to add upstream data.</t>
+  </si>
+  <si>
+    <t>Oil data: Upstream 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +185,28 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -84,14 +229,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{EB78E461-4304-4FCF-9CF8-D19927E9193B}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,29 +562,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26698943-8ACC-43BC-B41B-849BBF6D83AF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="82.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset Dictionary.xlsx
+++ b/Dataset Dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assignments\Machine Learning\OilPricePrediction-TimeSeries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE73B9E-DAE3-4E74-A882-D4F2A0DC78C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8DC3C6-DAEE-482F-91A2-D7DA8954A12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C0381D5-8427-4994-971C-691892E8BDB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Data Dictionary</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Oil data: Upstream 3</t>
+  </si>
+  <si>
+    <t>oil reserves in various countries around the globe not just OPEC</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,6 +715,9 @@
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dataset Dictionary.xlsx
+++ b/Dataset Dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assignments\Machine Learning\OilPricePrediction-TimeSeries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8DC3C6-DAEE-482F-91A2-D7DA8954A12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49074216-EF2E-4A19-8D2C-D9C35364387B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C0381D5-8427-4994-971C-691892E8BDB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Data Dictionary</t>
   </si>
@@ -169,15 +169,178 @@
   <si>
     <t>oil reserves in various countries around the globe not just OPEC</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 8.1: Composite barrel and its components in major OECD oil consuming countries </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>($/b)</t>
+    </r>
+  </si>
+  <si>
+    <t>Contains data about taxes imposed on oil, the margin of the company, and the cost of barrel.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 8.2: Tax to CIF crude oil price ratio in major OECD oil consuming countries </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ratio)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">it's the ratio of oil cost to tax imposed on it. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 8.3: Euro Big 4 household energy prices, 2022 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(USD/toe NCV)</t>
+    </r>
+  </si>
+  <si>
+    <t>contains energy price of lpg, naturaul gas. But not relevant as it has only 4 year data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 9.1: World proven natural gas reserves by country </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(bn standard cu m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Natural gas reserves of each contry</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 9.2: Natural gas marketed production in OPEC Members </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(million standard cu m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Natural gas produced by OPEC countries</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 9.3: World marketed production of natural gas by country </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(million standard cu m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Natural gas produced by the world</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 9.4: World natural gas exports by country </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(m standard cu m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Natural gas export of each country</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 9.5: World natural gas imports by country </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(m standard cu m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Natural gas import of each country</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 9.6: World  natural gas demand by country </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(m standard cu m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Total demand of natural gas of each country</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="9">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.000_)"/>
+    <numFmt numFmtId="171" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,16 +377,411 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tms Rmn"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -231,12 +789,282 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="10">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -250,10 +1078,154 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="73" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="119">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="21" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="24" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="27" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="30" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="33" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="22" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="25" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="74" xr:uid="{B6CBF37C-FFE8-4F8F-9883-CEE6834AF775}"/>
+    <cellStyle name="60% - Accent2 2" xfId="75" xr:uid="{89518CE6-CC33-4913-9939-0FAA5DC30ECC}"/>
+    <cellStyle name="60% - Accent3 2" xfId="76" xr:uid="{ADD1317F-E30C-4E12-AA4A-102ADA54D1DC}"/>
+    <cellStyle name="60% - Accent4 2" xfId="77" xr:uid="{5172DA65-D5A6-4EF1-AFA8-70F55F20C208}"/>
+    <cellStyle name="60% - Accent5 2" xfId="78" xr:uid="{C5AB2DD8-4731-4D0C-8013-FC9906C9AA4D}"/>
+    <cellStyle name="60% - Accent6 2" xfId="79" xr:uid="{702D99E0-1154-4BE6-BC90-B3003E2A8C9B}"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="26" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="29" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="32" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="10" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="12" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma  - Style1" xfId="80" xr:uid="{6DC11F8B-32DD-4613-917E-805AFC76EAB4}"/>
+    <cellStyle name="Comma  - Style2" xfId="81" xr:uid="{28AD9237-F7E3-4122-8EEC-81B8CFCA87D1}"/>
+    <cellStyle name="Comma  - Style3" xfId="82" xr:uid="{44337216-32D9-4D64-89DE-A78F7354C15E}"/>
+    <cellStyle name="Comma  - Style4" xfId="83" xr:uid="{134F021A-C23B-416D-BE0F-9F4181A86553}"/>
+    <cellStyle name="Comma  - Style5" xfId="84" xr:uid="{83747EEE-3E58-4BDB-9A92-1F8F6C2C3874}"/>
+    <cellStyle name="Comma  - Style6" xfId="85" xr:uid="{1D029D51-79D7-44F5-A09E-84C94245F9F0}"/>
+    <cellStyle name="Comma  - Style7" xfId="86" xr:uid="{A0ACD172-A9E2-4C81-89D3-94756772BD12}"/>
+    <cellStyle name="Comma  - Style8" xfId="87" xr:uid="{B7DE9D84-C5C3-4792-ADC7-9AF763FE6045}"/>
     <cellStyle name="Comma 2" xfId="1" xr:uid="{EB78E461-4304-4FCF-9CF8-D19927E9193B}"/>
+    <cellStyle name="Comma 2 2" xfId="39" xr:uid="{F4718137-6674-4700-8FB1-1D54EA153144}"/>
+    <cellStyle name="Comma 2 3" xfId="38" xr:uid="{C03A5989-8A09-4255-81C9-B8CB6990F5CD}"/>
+    <cellStyle name="Comma 3" xfId="37" xr:uid="{873C2D81-7F99-447F-B0FD-2278CACF513B}"/>
+    <cellStyle name="Comma 4" xfId="60" xr:uid="{3FFDFA15-BF20-420A-B9CF-1EF69AAEF756}"/>
+    <cellStyle name="Cover" xfId="40" xr:uid="{6D09610C-2D5F-40CE-8A75-729B586BBBC1}"/>
+    <cellStyle name="Excel Built-in Comma 2" xfId="70" xr:uid="{ADBCB195-C020-4AE3-A046-F1B960BC6328}"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="header-top" xfId="90" xr:uid="{8817B9E8-B3D2-4A9A-9C78-39AA7AB48973}"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink 2" xfId="59" xr:uid="{A2A009B6-8AB2-496F-861F-E90673A63274}"/>
+    <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Last Header Row" xfId="91" xr:uid="{E64A5A56-9CDA-4FEF-9193-982DC9E2E353}"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Menu" xfId="41" xr:uid="{38F1869F-432E-4C83-9A14-3AA521147787}"/>
+    <cellStyle name="Menu 2" xfId="42" xr:uid="{904DAA3A-DF11-4F0A-89A3-3809D93B14EC}"/>
+    <cellStyle name="Menu 2 2" xfId="43" xr:uid="{89E553FE-61B4-48E1-9768-34D9645F7A59}"/>
+    <cellStyle name="Menu 3" xfId="44" xr:uid="{EE763ACB-3D6C-45B7-85E8-D587CF4C471F}"/>
+    <cellStyle name="Millares 2" xfId="66" xr:uid="{2FDDA4ED-6D67-4576-B7E0-7313AF0F3120}"/>
+    <cellStyle name="Millares 2 2" xfId="67" xr:uid="{1C8BCC24-6D15-47F2-BB66-BCD10DEF09F5}"/>
+    <cellStyle name="Millares 3" xfId="68" xr:uid="{624CB920-C8BB-4435-BFDA-CCF26F992279}"/>
+    <cellStyle name="Milliers [0]_ElecTimeSeries" xfId="45" xr:uid="{765BE061-E56E-4F81-A607-C9E937A78113}"/>
+    <cellStyle name="Milliers_ElecTimeSeries" xfId="46" xr:uid="{A117F678-3929-49E9-829E-906BE2B65C75}"/>
+    <cellStyle name="Monétaire [0]_ElecTimeSeries" xfId="47" xr:uid="{434D662C-23F3-4C3C-99FD-4E636313C7C7}"/>
+    <cellStyle name="Monétaire_ElecTimeSeries" xfId="48" xr:uid="{06CB731A-F704-4BA1-95D7-A3DD2EF2CB38}"/>
+    <cellStyle name="Neutral 2" xfId="72" xr:uid="{82026DDD-074D-4976-AC6A-895B1D466210}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal - Style1" xfId="88" xr:uid="{B6A33E0B-233E-4623-B61E-32699E94302B}"/>
+    <cellStyle name="Normal 10" xfId="96" xr:uid="{E663BF7E-5D7E-43C2-873B-B0D7067108C5}"/>
+    <cellStyle name="Normal 11" xfId="97" xr:uid="{E5352D8C-0CF1-4150-A0C2-80985E6998B0}"/>
+    <cellStyle name="Normal 12" xfId="98" xr:uid="{7C5A5F76-0429-4323-96D6-17C816C834CA}"/>
+    <cellStyle name="Normal 13" xfId="99" xr:uid="{8A0EA7DA-7F81-4573-A3A6-9B113161F4A0}"/>
+    <cellStyle name="Normal 14" xfId="100" xr:uid="{40B2AB01-D425-429A-986C-4FA5EC30414D}"/>
+    <cellStyle name="Normal 15" xfId="101" xr:uid="{D9779A68-6F45-4D21-A0DB-71A817F36D2D}"/>
+    <cellStyle name="Normal 16" xfId="102" xr:uid="{AE551FF6-07BF-40A2-A846-708D4DBC9CA8}"/>
+    <cellStyle name="Normal 17" xfId="103" xr:uid="{048C74FA-284D-46D0-A75D-FA713019B5B8}"/>
+    <cellStyle name="Normal 18" xfId="104" xr:uid="{82EB9448-32D5-4C2A-843C-1E0C1A5E19EA}"/>
+    <cellStyle name="Normal 19" xfId="105" xr:uid="{803CBB6F-A0AC-4846-BDC1-C4CD81E1BEBD}"/>
+    <cellStyle name="Normal 2" xfId="49" xr:uid="{80C24E16-7288-4B3E-AC1F-4B19DB593823}"/>
+    <cellStyle name="Normal 2 2" xfId="50" xr:uid="{24E004EE-E5F7-4398-BD12-6829671F54A9}"/>
+    <cellStyle name="Normal 2 2 2" xfId="61" xr:uid="{2E5163E9-8B29-417C-B116-8AE99DAF3F55}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="117" xr:uid="{9A270A5E-0427-4F03-87EB-151FC69E09D2}"/>
+    <cellStyle name="Normal 2 3" xfId="62" xr:uid="{CE83EDD1-F586-405B-BA99-719F43B4FBA0}"/>
+    <cellStyle name="Normal 2 3 2" xfId="63" xr:uid="{8614E37C-A7D1-463B-A628-83DC677924CC}"/>
+    <cellStyle name="Normal 2 4" xfId="69" xr:uid="{B5EDEA34-CB70-4BEF-8C40-9FA846E34B89}"/>
+    <cellStyle name="Normal 20" xfId="106" xr:uid="{61D77FB7-313B-4573-BB2D-1773501B75B8}"/>
+    <cellStyle name="Normal 21" xfId="107" xr:uid="{636EC9E2-7FA0-4E68-91A4-69DB152DCDD4}"/>
+    <cellStyle name="Normal 22" xfId="108" xr:uid="{B9C779E0-3A93-4E93-AFC0-39322CEC2670}"/>
+    <cellStyle name="Normal 23" xfId="109" xr:uid="{85508793-AE47-4983-BCD1-C58CCAFC95BA}"/>
+    <cellStyle name="Normal 24" xfId="110" xr:uid="{BAB0FFC1-54B2-4F35-9450-67CD98041EE0}"/>
+    <cellStyle name="Normal 25" xfId="111" xr:uid="{53D372AB-F7E1-41E2-8B94-E564115A8D40}"/>
+    <cellStyle name="Normal 26" xfId="112" xr:uid="{F496CAC1-4C3E-4F2C-B3F9-BEEC8C0EAF53}"/>
+    <cellStyle name="Normal 27" xfId="114" xr:uid="{E17072D8-53CE-4853-A489-3285BC9327B0}"/>
+    <cellStyle name="Normal 28" xfId="89" xr:uid="{B01EDA07-1AA8-42E2-90FC-60DE8102F4C1}"/>
+    <cellStyle name="Normal 29" xfId="73" xr:uid="{626FF3FF-ABDD-4F33-A231-6C119A624339}"/>
+    <cellStyle name="Normal 3" xfId="51" xr:uid="{DC8E4441-3023-4645-BE13-10FAE6CC6D21}"/>
+    <cellStyle name="Normal 3 2" xfId="52" xr:uid="{8008F84F-C95C-4270-BF82-DAFED3C6D462}"/>
+    <cellStyle name="Normal 3 3" xfId="115" xr:uid="{940AA62A-9BAB-4A63-A67C-ADED62DBD40B}"/>
+    <cellStyle name="Normal 4" xfId="53" xr:uid="{4D46CB91-F476-486D-B374-9FC3C7AD7F46}"/>
+    <cellStyle name="Normal 4 2" xfId="93" xr:uid="{F0F1533C-0A3B-4D91-8EEC-5C5C20EE885D}"/>
+    <cellStyle name="Normal 5" xfId="54" xr:uid="{83068103-B7F3-4C5E-A182-265B2B2C7B1A}"/>
+    <cellStyle name="Normal 5 2" xfId="116" xr:uid="{A2D50992-66A8-4FBC-9B9A-546C47D732AE}"/>
+    <cellStyle name="Normal 6" xfId="55" xr:uid="{FCB690F5-248E-41F5-9748-7D78BE9D0728}"/>
+    <cellStyle name="Normal 6 2" xfId="56" xr:uid="{F65D9E9E-A4B7-4DC0-8D0B-A91AA204699F}"/>
+    <cellStyle name="Normal 7" xfId="36" xr:uid="{56B1E44E-CD23-4E8C-9DD8-FA08C3D90E22}"/>
+    <cellStyle name="Normal 8" xfId="64" xr:uid="{0ADE3EA5-0A56-48D7-A95B-8CA583B0FF73}"/>
+    <cellStyle name="Normal 8 2" xfId="94" xr:uid="{443E4DFA-1D52-49B2-9DAD-84092FBE6CEB}"/>
+    <cellStyle name="Normal 9" xfId="95" xr:uid="{85AEF77C-359A-4E0E-90B7-0FF6CE4B8CBD}"/>
+    <cellStyle name="normal cell" xfId="92" xr:uid="{9BE02EDF-F213-4D96-AE76-64C45777A9DD}"/>
+    <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent 2" xfId="35" xr:uid="{3FE22EDE-B121-4405-8413-582043D891B8}"/>
+    <cellStyle name="Percent 2 2" xfId="58" xr:uid="{CDA54F67-A15C-457E-A1FD-76AC8F1E3A38}"/>
+    <cellStyle name="Percent 2 3" xfId="118" xr:uid="{BE8236EC-D832-4C46-9458-FBAED1F4D039}"/>
+    <cellStyle name="Percent 3" xfId="65" xr:uid="{0131653C-0DB0-427F-80FC-3F317144C4DF}"/>
+    <cellStyle name="Percent 4" xfId="113" xr:uid="{FB1B87D4-D94B-4298-AB55-18EC5B06158D}"/>
+    <cellStyle name="Title 2" xfId="71" xr:uid="{AFDBDAA8-65B6-4435-8429-043AFA19CBC2}"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Year" xfId="57" xr:uid="{B8F76DDB-A3E1-4D61-9D44-A11AAA1DDF01}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -565,13 +1537,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26698943-8ACC-43BC-B41B-849BBF6D83AF}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="82.21875" style="2" customWidth="1"/>
@@ -579,12 +1551,12 @@
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="23.4">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.6">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -595,14 +1567,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="57.6">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -613,7 +1585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="72">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -624,12 +1596,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.6">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="42" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -640,7 +1612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="57.6">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -651,7 +1623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="57.6">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -662,7 +1634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="57.6">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -673,7 +1645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="43.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -684,7 +1656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="57.6">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -695,7 +1667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="115.2">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -706,17 +1678,89 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="31.2">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="28.8">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="78">
+      <c r="A25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="78">
+      <c r="A27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="62.4">
+      <c r="A29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="62.4">
+      <c r="A33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="78">
+      <c r="A35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="78">
+      <c r="A37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="62.4">
+      <c r="A39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="62.4">
+      <c r="A42" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="62.4">
+      <c r="A45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
